--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N2">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O2">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P2">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q2">
-        <v>6.135558829550667</v>
+        <v>83.48125091967199</v>
       </c>
       <c r="R2">
-        <v>55.220029465956</v>
+        <v>751.3312582770479</v>
       </c>
       <c r="S2">
-        <v>0.005818901133619511</v>
+        <v>0.2464227336176166</v>
       </c>
       <c r="T2">
-        <v>0.00785502785265985</v>
+        <v>0.253502821014217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
         <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P3">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q3">
-        <v>13.48998374655333</v>
+        <v>200.8924365568733</v>
       </c>
       <c r="R3">
-        <v>121.40985371898</v>
+        <v>1808.03192901186</v>
       </c>
       <c r="S3">
-        <v>0.01279376237699226</v>
+        <v>0.5930009772743216</v>
       </c>
       <c r="T3">
-        <v>0.01727050477468331</v>
+        <v>0.6100387671070023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N4">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O4">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P4">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q4">
-        <v>0.04750645970133334</v>
+        <v>0.8743948313026665</v>
       </c>
       <c r="R4">
-        <v>0.427558137312</v>
+        <v>7.869553481723999</v>
       </c>
       <c r="S4">
-        <v>4.505463966524833E-05</v>
+        <v>0.002581067751345147</v>
       </c>
       <c r="T4">
-        <v>6.081997980982028E-05</v>
+        <v>0.002655225622203066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N5">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O5">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P5">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q5">
-        <v>6.672030830972</v>
+        <v>26.092808034726</v>
       </c>
       <c r="R5">
-        <v>40.032184985832</v>
+        <v>156.556848208356</v>
       </c>
       <c r="S5">
-        <v>0.006327685683478408</v>
+        <v>0.07702161878077132</v>
       </c>
       <c r="T5">
-        <v>0.005694562844454973</v>
+        <v>0.05282304207723818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N6">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O6">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P6">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q6">
-        <v>0.01184547654133333</v>
+        <v>0.07713199057466666</v>
       </c>
       <c r="R6">
-        <v>0.106609288872</v>
+        <v>0.694187915172</v>
       </c>
       <c r="S6">
-        <v>1.123412859194697E-05</v>
+        <v>0.0002276807757117432</v>
       </c>
       <c r="T6">
-        <v>1.516513014463532E-05</v>
+        <v>0.0002342223791056343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N7">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O7">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P7">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q7">
-        <v>91.37055952505466</v>
+        <v>5.457963275964</v>
       </c>
       <c r="R7">
-        <v>822.335035725492</v>
+        <v>49.12166948367599</v>
       </c>
       <c r="S7">
-        <v>0.08665490253945239</v>
+        <v>0.0161109975668881</v>
       </c>
       <c r="T7">
-        <v>0.1169768410540985</v>
+        <v>0.0165738902113508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
         <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P8">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q8">
-        <v>200.8924365568733</v>
+        <v>13.13424905673</v>
       </c>
       <c r="R8">
-        <v>1808.03192901186</v>
+        <v>118.20824151057</v>
       </c>
       <c r="S8">
-        <v>0.190524328637557</v>
+        <v>0.03877011329991132</v>
       </c>
       <c r="T8">
-        <v>0.257191843217728</v>
+        <v>0.03988403564997102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N9">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O9">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P9">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q9">
-        <v>0.7074647843093333</v>
+        <v>0.05716750558199999</v>
       </c>
       <c r="R9">
-        <v>6.367183058784001</v>
+        <v>0.514507550238</v>
       </c>
       <c r="S9">
-        <v>0.0006709523532862846</v>
+        <v>0.0001687489447561353</v>
       </c>
       <c r="T9">
-        <v>0.000905729329618828</v>
+        <v>0.0001735973500124923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N10">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O10">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P10">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q10">
-        <v>99.35968460740399</v>
+        <v>1.705935002787</v>
       </c>
       <c r="R10">
-        <v>596.158107644424</v>
+        <v>10.235610016722</v>
       </c>
       <c r="S10">
-        <v>0.09423170691697882</v>
+        <v>0.005035635692201733</v>
       </c>
       <c r="T10">
-        <v>0.08480326043692138</v>
+        <v>0.003453544605598729</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N11">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O11">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P11">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q11">
-        <v>0.1764024841893333</v>
+        <v>0.005042851746</v>
       </c>
       <c r="R11">
-        <v>1.587622357704</v>
+        <v>0.045385665714</v>
       </c>
       <c r="S11">
-        <v>0.0001672983087178356</v>
+        <v>1.488565754331384E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002258386668728395</v>
+        <v>1.531334436755817E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N12">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O12">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P12">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q12">
-        <v>1.036104678872111</v>
+        <v>1.874906621928</v>
       </c>
       <c r="R12">
-        <v>9.324942109848999</v>
+        <v>16.874159597352</v>
       </c>
       <c r="S12">
-        <v>0.0009826310622921589</v>
+        <v>0.005534411738724869</v>
       </c>
       <c r="T12">
-        <v>0.001326469411655474</v>
+        <v>0.005693423523975765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N13">
         <v>161.160385</v>
       </c>
       <c r="O13">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P13">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q13">
-        <v>2.278037855393889</v>
+        <v>4.511846138460001</v>
       </c>
       <c r="R13">
-        <v>20.502340698545</v>
+        <v>40.60661524614001</v>
       </c>
       <c r="S13">
-        <v>0.002160467762991106</v>
+        <v>0.01331821752612723</v>
       </c>
       <c r="T13">
-        <v>0.002916450041575588</v>
+        <v>0.01370086949442427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N14">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O14">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P14">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q14">
-        <v>0.00802236056088889</v>
+        <v>0.019638046164</v>
       </c>
       <c r="R14">
-        <v>0.072201245048</v>
+        <v>0.176742415476</v>
       </c>
       <c r="S14">
-        <v>7.608324564867628E-06</v>
+        <v>5.796823796157897E-05</v>
       </c>
       <c r="T14">
-        <v>1.027059920709407E-05</v>
+        <v>5.963375065584107E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N15">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O15">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P15">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q15">
-        <v>1.126698081396333</v>
+        <v>0.5860187530740001</v>
       </c>
       <c r="R15">
-        <v>6.760188488378</v>
+        <v>3.516112518444</v>
       </c>
       <c r="S15">
-        <v>0.001068548917094188</v>
+        <v>0.00172982965028442</v>
       </c>
       <c r="T15">
-        <v>0.0009616342001080886</v>
+        <v>0.001186353466076984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,648 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N16">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O16">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P16">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q16">
-        <v>0.002000331837555556</v>
+        <v>0.001732308492</v>
       </c>
       <c r="R16">
-        <v>0.018002986538</v>
+        <v>0.015590776428</v>
       </c>
       <c r="S16">
-        <v>1.897094220840459E-06</v>
+        <v>5.113485835021893E-06</v>
       </c>
       <c r="T16">
-        <v>2.56091787807238E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>24.43316566666667</v>
-      </c>
-      <c r="N17">
-        <v>73.299497</v>
-      </c>
-      <c r="O17">
-        <v>0.2327873509383369</v>
-      </c>
-      <c r="P17">
-        <v>0.2542402694696194</v>
-      </c>
-      <c r="Q17">
-        <v>140.6051963976473</v>
-      </c>
-      <c r="R17">
-        <v>843.6311783858839</v>
-      </c>
-      <c r="S17">
-        <v>0.1333485277283181</v>
-      </c>
-      <c r="T17">
-        <v>0.1200062091179951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>53.72012833333333</v>
-      </c>
-      <c r="N18">
-        <v>161.160385</v>
-      </c>
-      <c r="O18">
-        <v>0.5118193253134121</v>
-      </c>
-      <c r="P18">
-        <v>0.558986915152059</v>
-      </c>
-      <c r="Q18">
-        <v>309.1424704380366</v>
-      </c>
-      <c r="R18">
-        <v>1854.85482262822</v>
-      </c>
-      <c r="S18">
-        <v>0.2931875517219295</v>
-      </c>
-      <c r="T18">
-        <v>0.2638523817407178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.1891813333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.567544</v>
-      </c>
-      <c r="O19">
-        <v>0.001802427979839308</v>
-      </c>
-      <c r="P19">
-        <v>0.001968533829036585</v>
-      </c>
-      <c r="Q19">
-        <v>1.088679170394667</v>
-      </c>
-      <c r="R19">
-        <v>6.532075022368</v>
-      </c>
-      <c r="S19">
-        <v>0.001032492171413408</v>
-      </c>
-      <c r="T19">
-        <v>0.000929185147718864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>26.569517</v>
-      </c>
-      <c r="N20">
-        <v>53.139034</v>
-      </c>
-      <c r="O20">
-        <v>0.2531414701853045</v>
-      </c>
-      <c r="P20">
-        <v>0.1843134383789191</v>
-      </c>
-      <c r="Q20">
-        <v>152.899227506662</v>
-      </c>
-      <c r="R20">
-        <v>611.5969100266479</v>
-      </c>
-      <c r="S20">
-        <v>0.1450080608767009</v>
-      </c>
-      <c r="T20">
-        <v>0.08699942410972142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.04717133333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.141514</v>
-      </c>
-      <c r="O21">
-        <v>0.0004494255831071774</v>
-      </c>
-      <c r="P21">
-        <v>0.0004908431703661447</v>
-      </c>
-      <c r="Q21">
-        <v>0.2714562115346666</v>
-      </c>
-      <c r="R21">
-        <v>1.628737269208</v>
-      </c>
-      <c r="S21">
-        <v>0.0002574462898830698</v>
-      </c>
-      <c r="T21">
-        <v>0.000231687247146102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>24.43316566666667</v>
-      </c>
-      <c r="N22">
-        <v>73.299497</v>
-      </c>
-      <c r="O22">
-        <v>0.2327873509383369</v>
-      </c>
-      <c r="P22">
-        <v>0.2542402694696194</v>
-      </c>
-      <c r="Q22">
-        <v>6.307942957717557</v>
-      </c>
-      <c r="R22">
-        <v>56.771486619458</v>
-      </c>
-      <c r="S22">
-        <v>0.005982388474654717</v>
-      </c>
-      <c r="T22">
-        <v>0.008075722033210404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>53.72012833333333</v>
-      </c>
-      <c r="N23">
-        <v>161.160385</v>
-      </c>
-      <c r="O23">
-        <v>0.5118193253134121</v>
-      </c>
-      <c r="P23">
-        <v>0.558986915152059</v>
-      </c>
-      <c r="Q23">
-        <v>13.86899715865444</v>
-      </c>
-      <c r="R23">
-        <v>124.82097442789</v>
-      </c>
-      <c r="S23">
-        <v>0.01315321481394227</v>
-      </c>
-      <c r="T23">
-        <v>0.01775573537735425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1891813333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.567544</v>
-      </c>
-      <c r="O24">
-        <v>0.001802427979839308</v>
-      </c>
-      <c r="P24">
-        <v>0.001968533829036585</v>
-      </c>
-      <c r="Q24">
-        <v>0.04884119706844445</v>
-      </c>
-      <c r="R24">
-        <v>0.4395707736160001</v>
-      </c>
-      <c r="S24">
-        <v>4.632049090950019E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.252877268197851E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>26.569517</v>
-      </c>
-      <c r="N25">
-        <v>53.139034</v>
-      </c>
-      <c r="O25">
-        <v>0.2531414701853045</v>
-      </c>
-      <c r="P25">
-        <v>0.1843134383789191</v>
-      </c>
-      <c r="Q25">
-        <v>6.859487629912667</v>
-      </c>
-      <c r="R25">
-        <v>41.156925779476</v>
-      </c>
-      <c r="S25">
-        <v>0.006505467791052205</v>
-      </c>
-      <c r="T25">
-        <v>0.005854556787713247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.04717133333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.141514</v>
-      </c>
-      <c r="O26">
-        <v>0.0004494255831071774</v>
-      </c>
-      <c r="P26">
-        <v>0.0004908431703661447</v>
-      </c>
-      <c r="Q26">
-        <v>0.01217828602177778</v>
-      </c>
-      <c r="R26">
-        <v>0.109604574196</v>
-      </c>
-      <c r="S26">
-        <v>1.154976169348458E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.559120832449556E-05</v>
+        <v>5.260403800266985E-06</v>
       </c>
     </row>
   </sheetData>
